--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inforclat-my.sharepoint.com/personal/arivadeneira_inforc_lat/Documents/Personal/UIDE/Academico/2 - CICLO DE VIDA DE LA INTELIGENCIA ARTIFICIAL/Semana2/Grupo5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1115e5860e640e8/Escritorio/2-Ciclo-Vida-Inteligencia-Artificial-Tarea2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="93" documentId="8_{BEB9ACF5-A65A-4456-8014-BE0A2EDDD1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7301D298-30F4-4832-979F-C8CE03DDD5E6}"/>
@@ -204,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -221,9 +221,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -233,16 +230,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -265,7 +262,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1273,7 +1270,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1591,11 +1588,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3A2BEF-BD1C-4FDD-8374-5DAAEFDB616E}">
   <dimension ref="A2:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" style="5" customWidth="1"/>
@@ -1617,104 +1614,104 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="11">
-        <v>2</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="D7" s="10">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10">
         <v>1</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11">
-        <v>2</v>
-      </c>
-      <c r="E8" s="11">
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
         <v>1</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="11">
-        <v>2</v>
-      </c>
-      <c r="E9" s="11">
+      <c r="D9" s="10">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10">
         <v>2</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11">
-        <v>2</v>
-      </c>
-      <c r="E10" s="11">
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
         <v>2</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="11">
-        <v>2</v>
-      </c>
-      <c r="E11" s="11">
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10">
         <v>2</v>
       </c>
       <c r="F11" s="5"/>
@@ -1724,217 +1721,215 @@
       <c r="A14" s="7">
         <v>2</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="H14" s="13" t="s">
+      <c r="B14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="H14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="11">
-        <v>2</v>
-      </c>
-      <c r="E16" s="11">
+      <c r="D16" s="10">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="11">
-        <v>2</v>
-      </c>
-      <c r="E17" s="11">
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="11">
-        <v>2</v>
-      </c>
-      <c r="E18" s="11">
+      <c r="D18" s="10">
+        <v>2</v>
+      </c>
+      <c r="E18" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="11">
-        <v>2</v>
-      </c>
-      <c r="E19" s="11">
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="11">
-        <v>2</v>
-      </c>
-      <c r="E20" s="11">
+      <c r="D20" s="10">
+        <v>2</v>
+      </c>
+      <c r="E20" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>3</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="11">
-        <v>2</v>
-      </c>
-      <c r="E25" s="11">
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="11">
-        <v>2</v>
-      </c>
-      <c r="E26" s="11">
+      <c r="D26" s="10">
+        <v>2</v>
+      </c>
+      <c r="E26" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="10">
         <v>1</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="11">
-        <v>2</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="D28" s="10">
+        <v>2</v>
+      </c>
+      <c r="E28" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="11">
-        <v>2</v>
-      </c>
-      <c r="E29" s="11">
+      <c r="D29" s="10">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1942,95 +1937,95 @@
       <c r="A33" s="7">
         <v>4</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="11">
-        <v>2</v>
-      </c>
-      <c r="E35" s="11">
+      <c r="D35" s="10">
+        <v>2</v>
+      </c>
+      <c r="E35" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="11">
-        <v>2</v>
-      </c>
-      <c r="E36" s="11">
+      <c r="D36" s="10">
+        <v>2</v>
+      </c>
+      <c r="E36" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="11">
-        <v>2</v>
-      </c>
-      <c r="E37" s="11">
+      <c r="D37" s="10">
+        <v>2</v>
+      </c>
+      <c r="E37" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="11">
-        <v>2</v>
-      </c>
-      <c r="E38" s="11">
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
+      <c r="E38" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="11">
-        <v>2</v>
-      </c>
-      <c r="E39" s="11">
+      <c r="D39" s="10">
+        <v>2</v>
+      </c>
+      <c r="E39" s="10">
         <v>2</v>
       </c>
     </row>
@@ -2038,106 +2033,106 @@
       <c r="A44" s="7">
         <v>5</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="11">
-        <v>2</v>
-      </c>
-      <c r="E46" s="11">
+      <c r="D46" s="10">
+        <v>2</v>
+      </c>
+      <c r="E46" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="11">
-        <v>2</v>
-      </c>
-      <c r="E47" s="11">
+      <c r="D47" s="10">
+        <v>2</v>
+      </c>
+      <c r="E47" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="11">
-        <v>2</v>
-      </c>
-      <c r="E48" s="11">
+      <c r="D48" s="10">
+        <v>2</v>
+      </c>
+      <c r="E48" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="11">
-        <v>2</v>
-      </c>
-      <c r="E49" s="11">
+      <c r="D49" s="10">
+        <v>2</v>
+      </c>
+      <c r="E49" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="11">
-        <v>2</v>
-      </c>
-      <c r="E50" s="11">
+      <c r="D50" s="10">
+        <v>2</v>
+      </c>
+      <c r="E50" s="10">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="H14:M15"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B44:F44"/>
     <mergeCell ref="B33:F33"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="H14:M15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -2150,10 +2145,10 @@
   <dimension ref="B4:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B4" sqref="B4:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" style="3"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
